--- a/datas/Kısa Opsiyon Pozisyonu Minimum Riski (Short Option Minimum Risk).xlsx
+++ b/datas/Kısa Opsiyon Pozisyonu Minimum Riski (Short Option Minimum Risk).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,81 +434,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 12</t>
-        </is>
-      </c>
+          <t>Opsiyon Sözleşmeleri 
+(Options)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr"/>
+      <c r="M1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6) Kısa Opsiyon Pozisyonu Minimum Riski 
-(Short Option Minimum Risk)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>AKBNK</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>395</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -524,11 +478,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Opsiyon Sözleşmeleri 
-(Options)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>ALARK</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>830</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -544,11 +499,11 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AKBNK</t>
+          <t>ARCLK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>395</v>
+        <v>1170</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -565,11 +520,11 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALARK</t>
+          <t>ASELS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>830</v>
+        <v>390</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -586,11 +541,11 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARCLK</t>
+          <t>BIMAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1170</v>
+        <v>2515</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -607,11 +562,11 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ASELS</t>
+          <t>EKGYO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -628,11 +583,11 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMAS</t>
+          <t>ENKAI</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2515</v>
+        <v>275</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -649,11 +604,11 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EKGYO</t>
+          <t>EREGL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>385</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -670,11 +625,11 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENKAI</t>
+          <t>FROTO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>275</v>
+        <v>6860</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -691,11 +646,11 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EREGL</t>
+          <t>GARAN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>385</v>
+        <v>520</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -712,11 +667,11 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FROTO</t>
+          <t>HALKB</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6860</v>
+        <v>140</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -733,11 +688,11 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GARAN</t>
+          <t>ISCTR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>520</v>
+        <v>90</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -754,11 +709,11 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HALKB</t>
+          <t>KCHOL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>140</v>
+        <v>1140</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -775,11 +730,11 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ISCTR</t>
+          <t>KRDMD</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -796,11 +751,11 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KCHOL</t>
+          <t>PETKM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1140</v>
+        <v>150</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -817,11 +772,11 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KRDMD</t>
+          <t>PGSUS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>230</v>
+        <v>1305</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -838,11 +793,11 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PETKM</t>
+          <t>SAHOL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -859,11 +814,11 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PGSUS</t>
+          <t>SISE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1305</v>
+        <v>310</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -880,11 +835,11 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAHOL</t>
+          <t>TAVHL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>380</v>
+        <v>990</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -901,11 +856,11 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SISE</t>
+          <t>TCELL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>310</v>
+        <v>445</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -922,11 +877,11 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TAVHL</t>
+          <t>THYAO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>990</v>
+        <v>1265</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -943,11 +898,11 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TCELL</t>
+          <t>TOASO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>445</v>
+        <v>1390</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -964,11 +919,11 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>THYAO</t>
+          <t>TTKOM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1265</v>
+        <v>240</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -985,11 +940,11 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOASO</t>
+          <t>TUPRS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1390</v>
+        <v>1060</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1006,11 +961,11 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TTKOM</t>
+          <t>USDTRY</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>240</v>
+        <v>725</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1027,11 +982,11 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TUPRS</t>
+          <t>VAKBN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1060</v>
+        <v>140</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1048,11 +1003,11 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>USDTRY</t>
+          <t>XU030</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>725</v>
+        <v>4505</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -1069,11 +1024,11 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VAKBN</t>
+          <t>YKBNK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1086,48 +1041,6 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>XU030</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>4505</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>YKBNK</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>160</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
